--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H2">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I2">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J2">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N2">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O2">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P2">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q2">
-        <v>0.22205535675625</v>
+        <v>10.76020735590025</v>
       </c>
       <c r="R2">
-        <v>0.8882214270250001</v>
+        <v>43.040829423601</v>
       </c>
       <c r="S2">
-        <v>0.0003992713903565869</v>
+        <v>0.02657535739663407</v>
       </c>
       <c r="T2">
-        <v>0.0002217226856765085</v>
+        <v>0.02145714973466519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H3">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I3">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J3">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.063372</v>
       </c>
       <c r="O3">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P3">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q3">
-        <v>0.00995420971</v>
+        <v>0.06929253966200001</v>
       </c>
       <c r="R3">
-        <v>0.05972525826</v>
+        <v>0.415755237972</v>
       </c>
       <c r="S3">
-        <v>1.789837997547372E-05</v>
+        <v>0.000171137408929981</v>
       </c>
       <c r="T3">
-        <v>1.490894529361263E-05</v>
+        <v>0.0002072665074907889</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H4">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I4">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J4">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N4">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O4">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P4">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q4">
-        <v>3.3483687320525</v>
+        <v>1.0357437088495</v>
       </c>
       <c r="R4">
-        <v>20.090212392315</v>
+        <v>6.214462253097</v>
       </c>
       <c r="S4">
-        <v>0.006020606116431797</v>
+        <v>0.002558060297871265</v>
       </c>
       <c r="T4">
-        <v>0.005015028586233575</v>
+        <v>0.003098096595043983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H5">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I5">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J5">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N5">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O5">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P5">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q5">
-        <v>3.291231926450001</v>
+        <v>40.34224353787825</v>
       </c>
       <c r="R5">
-        <v>13.1649277058</v>
+        <v>161.368974151513</v>
       </c>
       <c r="S5">
-        <v>0.005917870059321109</v>
+        <v>0.09963651300950863</v>
       </c>
       <c r="T5">
-        <v>0.003286301184428524</v>
+        <v>0.08044729358769501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H6">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I6">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J6">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N6">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O6">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P6">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q6">
-        <v>0.5811992753575</v>
+        <v>3.409500859897333</v>
       </c>
       <c r="R6">
-        <v>3.487195652145</v>
+        <v>20.457005159384</v>
       </c>
       <c r="S6">
-        <v>0.001045037805599789</v>
+        <v>0.008420720986033643</v>
       </c>
       <c r="T6">
-        <v>0.0008704928320213453</v>
+        <v>0.01019843317859083</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="H7">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="I7">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="J7">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N7">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O7">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P7">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q7">
-        <v>3.660084152544167</v>
+        <v>10.38865765727883</v>
       </c>
       <c r="R7">
-        <v>21.960504915265</v>
+        <v>62.33194594367301</v>
       </c>
       <c r="S7">
-        <v>0.006581092704791448</v>
+        <v>0.0256577109512743</v>
       </c>
       <c r="T7">
-        <v>0.005481901224713051</v>
+        <v>0.03107435231331909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.063372</v>
       </c>
       <c r="I8">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J8">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N8">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O8">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P8">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q8">
-        <v>0.00995420971</v>
+        <v>0.06929253966200001</v>
       </c>
       <c r="R8">
-        <v>0.05972525826</v>
+        <v>0.415755237972</v>
       </c>
       <c r="S8">
-        <v>1.789837997547372E-05</v>
+        <v>0.000171137408929981</v>
       </c>
       <c r="T8">
-        <v>1.490894529361263E-05</v>
+        <v>0.0002072665074907889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.063372</v>
       </c>
       <c r="I9">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J9">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -998,10 +998,10 @@
         <v>0.063372</v>
       </c>
       <c r="O9">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P9">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q9">
         <v>0.000446223376</v>
@@ -1010,10 +1010,10 @@
         <v>0.004016010384</v>
       </c>
       <c r="S9">
-        <v>8.023414987493447E-07</v>
+        <v>1.102074086837194E-06</v>
       </c>
       <c r="T9">
-        <v>1.002498454723907E-06</v>
+        <v>2.002102127200333E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>0.063372</v>
       </c>
       <c r="I10">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J10">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N10">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O10">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P10">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q10">
-        <v>0.150099349244</v>
+        <v>0.006669881876</v>
       </c>
       <c r="R10">
-        <v>1.350894143196</v>
+        <v>0.060028936884</v>
       </c>
       <c r="S10">
-        <v>0.0002698893498437703</v>
+        <v>1.647314859140112E-05</v>
       </c>
       <c r="T10">
-        <v>0.000337217577037412</v>
+        <v>2.992623293700899E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.063372</v>
       </c>
       <c r="I11">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J11">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N11">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O11">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P11">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q11">
-        <v>0.14753804312</v>
+        <v>0.259792067006</v>
       </c>
       <c r="R11">
-        <v>0.8852282587200001</v>
+        <v>1.558752402036</v>
       </c>
       <c r="S11">
-        <v>0.0002652839385076192</v>
+        <v>0.0006416295523997481</v>
       </c>
       <c r="T11">
-        <v>0.0002209755146501471</v>
+        <v>0.0007770850175906578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>0.063372</v>
       </c>
       <c r="I12">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J12">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N12">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O12">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P12">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q12">
-        <v>0.026053771252</v>
+        <v>0.02195617293866667</v>
       </c>
       <c r="R12">
-        <v>0.234483941268</v>
+        <v>0.197605556448</v>
       </c>
       <c r="S12">
-        <v>4.684654143803141E-05</v>
+        <v>5.422694225194642E-05</v>
       </c>
       <c r="T12">
-        <v>5.853316259222635E-05</v>
+        <v>9.851232120498079E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>0.063372</v>
       </c>
       <c r="I13">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="J13">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N13">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O13">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P13">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q13">
-        <v>0.1640728048306667</v>
+        <v>0.06689986995066667</v>
       </c>
       <c r="R13">
-        <v>1.476655243476</v>
+        <v>0.602098829556</v>
       </c>
       <c r="S13">
-        <v>0.0002950146209548775</v>
+        <v>0.0001652280383567534</v>
       </c>
       <c r="T13">
-        <v>0.0003686107500225639</v>
+        <v>0.0003001644000328109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H14">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I14">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J14">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N14">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O14">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P14">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q14">
-        <v>3.3483687320525</v>
+        <v>1.0357437088495</v>
       </c>
       <c r="R14">
-        <v>20.090212392315</v>
+        <v>6.214462253097</v>
       </c>
       <c r="S14">
-        <v>0.006020606116431797</v>
+        <v>0.002558060297871265</v>
       </c>
       <c r="T14">
-        <v>0.005015028586233575</v>
+        <v>0.003098096595043983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H15">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I15">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J15">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,22 +1370,22 @@
         <v>0.063372</v>
       </c>
       <c r="O15">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P15">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q15">
-        <v>0.150099349244</v>
+        <v>0.006669881876</v>
       </c>
       <c r="R15">
-        <v>1.350894143196</v>
+        <v>0.060028936884</v>
       </c>
       <c r="S15">
-        <v>0.0002698893498437703</v>
+        <v>1.647314859140112E-05</v>
       </c>
       <c r="T15">
-        <v>0.000337217577037412</v>
+        <v>2.992623293700899E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H16">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I16">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J16">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N16">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O16">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P16">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q16">
-        <v>50.489991908161</v>
+        <v>0.09969743100099999</v>
       </c>
       <c r="R16">
-        <v>454.409927173449</v>
+        <v>0.8972768790089999</v>
       </c>
       <c r="S16">
-        <v>0.09078461138135482</v>
+        <v>0.000246230836706415</v>
       </c>
       <c r="T16">
-        <v>0.1134322888251242</v>
+        <v>0.0004473195476059294</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H17">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I17">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J17">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N17">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O17">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P17">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q17">
-        <v>49.62842704378</v>
+        <v>3.8832174476935</v>
       </c>
       <c r="R17">
-        <v>297.77056226268</v>
+        <v>23.299304686161</v>
       </c>
       <c r="S17">
-        <v>0.08923545622333992</v>
+        <v>0.009590697289370767</v>
       </c>
       <c r="T17">
-        <v>0.07433111471023668</v>
+        <v>0.01161540509464271</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H18">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I18">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J18">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N18">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O18">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P18">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q18">
-        <v>8.763893423362999</v>
+        <v>0.3281878266053334</v>
       </c>
       <c r="R18">
-        <v>78.87504081026701</v>
+        <v>2.953690439448</v>
       </c>
       <c r="S18">
-        <v>0.01575810628123748</v>
+        <v>0.0008105521108270133</v>
       </c>
       <c r="T18">
-        <v>0.01968921864435542</v>
+        <v>0.001472503640794901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="H19">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="I19">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="J19">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N19">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O19">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P19">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q19">
-        <v>55.19034312922434</v>
+        <v>0.9999795037423334</v>
       </c>
       <c r="R19">
-        <v>496.7130881630191</v>
+        <v>8.999815533681</v>
       </c>
       <c r="S19">
-        <v>0.09923617856988388</v>
+        <v>0.002469730537923998</v>
       </c>
       <c r="T19">
-        <v>0.1239922350072705</v>
+        <v>0.004486679092310169</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H20">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I20">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J20">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N20">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O20">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P20">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q20">
-        <v>3.291231926450001</v>
+        <v>40.34224353787825</v>
       </c>
       <c r="R20">
-        <v>13.1649277058</v>
+        <v>161.368974151513</v>
       </c>
       <c r="S20">
-        <v>0.005917870059321109</v>
+        <v>0.09963651300950863</v>
       </c>
       <c r="T20">
-        <v>0.003286301184428524</v>
+        <v>0.08044729358769501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H21">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I21">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J21">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1742,22 +1742,22 @@
         <v>0.063372</v>
       </c>
       <c r="O21">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P21">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q21">
-        <v>0.14753804312</v>
+        <v>0.259792067006</v>
       </c>
       <c r="R21">
-        <v>0.8852282587200001</v>
+        <v>1.558752402036</v>
       </c>
       <c r="S21">
-        <v>0.0002652839385076192</v>
+        <v>0.0006416295523997481</v>
       </c>
       <c r="T21">
-        <v>0.0002209755146501471</v>
+        <v>0.0007770850175906578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H22">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I22">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J22">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N22">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O22">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P22">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q22">
-        <v>49.62842704378</v>
+        <v>3.8832174476935</v>
       </c>
       <c r="R22">
-        <v>297.77056226268</v>
+        <v>23.299304686161</v>
       </c>
       <c r="S22">
-        <v>0.08923545622333992</v>
+        <v>0.009590697289370767</v>
       </c>
       <c r="T22">
-        <v>0.07433111471023668</v>
+        <v>0.01161540509464271</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H23">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I23">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J23">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N23">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O23">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P23">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q23">
-        <v>48.78156398440001</v>
+        <v>151.2514173601922</v>
       </c>
       <c r="R23">
-        <v>195.1262559376</v>
+        <v>605.005669440769</v>
       </c>
       <c r="S23">
-        <v>0.08771273596070088</v>
+        <v>0.3735579008977449</v>
       </c>
       <c r="T23">
-        <v>0.04870848213760635</v>
+        <v>0.3016135472610933</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H24">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I24">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J24">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N24">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O24">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P24">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q24">
-        <v>8.614345713740001</v>
+        <v>12.78292410946533</v>
       </c>
       <c r="R24">
-        <v>51.68607428244001</v>
+        <v>76.69754465679199</v>
       </c>
       <c r="S24">
-        <v>0.01548920881882966</v>
+        <v>0.03157102512497722</v>
       </c>
       <c r="T24">
-        <v>0.01290216026465612</v>
+        <v>0.03823603592266155</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="H25">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="I25">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="J25">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N25">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O25">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P25">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q25">
-        <v>54.24857113251334</v>
+        <v>38.94922684847483</v>
       </c>
       <c r="R25">
-        <v>325.49142679508</v>
+        <v>233.695361090849</v>
       </c>
       <c r="S25">
-        <v>0.0975428052596491</v>
+        <v>0.09619606663557584</v>
       </c>
       <c r="T25">
-        <v>0.0812509483760208</v>
+        <v>0.1165041757414039</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H26">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I26">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J26">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N26">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O26">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P26">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q26">
-        <v>0.5811992753575</v>
+        <v>3.409500859897333</v>
       </c>
       <c r="R26">
-        <v>3.487195652145</v>
+        <v>20.457005159384</v>
       </c>
       <c r="S26">
-        <v>0.001045037805599789</v>
+        <v>0.008420720986033643</v>
       </c>
       <c r="T26">
-        <v>0.0008704928320213453</v>
+        <v>0.01019843317859083</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H27">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I27">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J27">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2114,22 +2114,22 @@
         <v>0.063372</v>
       </c>
       <c r="O27">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P27">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q27">
-        <v>0.026053771252</v>
+        <v>0.02195617293866667</v>
       </c>
       <c r="R27">
-        <v>0.234483941268</v>
+        <v>0.197605556448</v>
       </c>
       <c r="S27">
-        <v>4.684654143803141E-05</v>
+        <v>5.422694225194642E-05</v>
       </c>
       <c r="T27">
-        <v>5.853316259222635E-05</v>
+        <v>9.851232120498079E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,46 +2152,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H28">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I28">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J28">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N28">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O28">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P28">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q28">
-        <v>8.763893423362999</v>
+        <v>0.3281878266053334</v>
       </c>
       <c r="R28">
-        <v>78.87504081026701</v>
+        <v>2.953690439448</v>
       </c>
       <c r="S28">
-        <v>0.01575810628123748</v>
+        <v>0.0008105521108270133</v>
       </c>
       <c r="T28">
-        <v>0.01968921864435542</v>
+        <v>0.001472503640794901</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H29">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I29">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J29">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N29">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O29">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P29">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q29">
-        <v>8.614345713740001</v>
+        <v>12.78292410946533</v>
       </c>
       <c r="R29">
-        <v>51.68607428244001</v>
+        <v>76.69754465679199</v>
       </c>
       <c r="S29">
-        <v>0.01548920881882966</v>
+        <v>0.03157102512497722</v>
       </c>
       <c r="T29">
-        <v>0.01290216026465612</v>
+        <v>0.03823603592266155</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H30">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I30">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J30">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N30">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O30">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P30">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q30">
-        <v>1.521208957129</v>
+        <v>1.080341273095111</v>
       </c>
       <c r="R30">
-        <v>13.690880614161</v>
+        <v>9.723071457855999</v>
       </c>
       <c r="S30">
-        <v>0.002735242347711092</v>
+        <v>0.002668206521791064</v>
       </c>
       <c r="T30">
-        <v>0.003417592423114089</v>
+        <v>0.004847243952916616</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="H31">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="I31">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="J31">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N31">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O31">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P31">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q31">
-        <v>9.579765551619667</v>
+        <v>3.291770878025778</v>
       </c>
       <c r="R31">
-        <v>86.21788996457701</v>
+        <v>29.625937902232</v>
       </c>
       <c r="S31">
-        <v>0.01722510263638422</v>
+        <v>0.008129953694934904</v>
       </c>
       <c r="T31">
-        <v>0.0215221807700994</v>
+        <v>0.01476942229299865</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H32">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I32">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J32">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4712275</v>
+        <v>3.2802755</v>
       </c>
       <c r="N32">
-        <v>0.942455</v>
+        <v>6.560551</v>
       </c>
       <c r="O32">
-        <v>0.01998177645647621</v>
+        <v>0.1630195000502519</v>
       </c>
       <c r="P32">
-        <v>0.01489035545836662</v>
+        <v>0.1464825919168049</v>
       </c>
       <c r="Q32">
-        <v>3.660084152544167</v>
+        <v>10.38865765727883</v>
       </c>
       <c r="R32">
-        <v>21.960504915265</v>
+        <v>62.33194594367301</v>
       </c>
       <c r="S32">
-        <v>0.006581092704791448</v>
+        <v>0.0256577109512743</v>
       </c>
       <c r="T32">
-        <v>0.005481901224713051</v>
+        <v>0.03107435231331909</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2462,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H33">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I33">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J33">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2486,22 +2486,22 @@
         <v>0.063372</v>
       </c>
       <c r="O33">
-        <v>0.0008957351722185217</v>
+        <v>0.001049797164616667</v>
       </c>
       <c r="P33">
-        <v>0.001001248448050686</v>
+        <v>0.001414956581383448</v>
       </c>
       <c r="Q33">
-        <v>0.1640728048306667</v>
+        <v>0.06689986995066667</v>
       </c>
       <c r="R33">
-        <v>1.476655243476</v>
+        <v>0.602098829556</v>
       </c>
       <c r="S33">
-        <v>0.0002950146209548775</v>
+        <v>0.0001652280383567534</v>
       </c>
       <c r="T33">
-        <v>0.0003686107500225639</v>
+        <v>0.0003001644000328109</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2524,46 +2524,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H34">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I34">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J34">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>7.105631</v>
+        <v>0.315749</v>
       </c>
       <c r="N34">
-        <v>21.316893</v>
+        <v>0.947247</v>
       </c>
       <c r="O34">
-        <v>0.3013048479220917</v>
+        <v>0.01569174422129086</v>
       </c>
       <c r="P34">
-        <v>0.3367971033502577</v>
+        <v>0.0211499302033347</v>
       </c>
       <c r="Q34">
-        <v>55.19034312922434</v>
+        <v>0.9999795037423334</v>
       </c>
       <c r="R34">
-        <v>496.7130881630191</v>
+        <v>8.999815533681</v>
       </c>
       <c r="S34">
-        <v>0.09923617856988388</v>
+        <v>0.002469730537923998</v>
       </c>
       <c r="T34">
-        <v>0.1239922350072705</v>
+        <v>0.004486679092310169</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H35">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I35">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J35">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.984380000000001</v>
+        <v>12.2984315</v>
       </c>
       <c r="N35">
-        <v>13.96876</v>
+        <v>24.596863</v>
       </c>
       <c r="O35">
-        <v>0.2961633602603483</v>
+        <v>0.611193832509577</v>
       </c>
       <c r="P35">
-        <v>0.2206999821875986</v>
+        <v>0.549193542625087</v>
       </c>
       <c r="Q35">
-        <v>54.24857113251334</v>
+        <v>38.94922684847483</v>
       </c>
       <c r="R35">
-        <v>325.49142679508</v>
+        <v>233.695361090849</v>
       </c>
       <c r="S35">
-        <v>0.0975428052596491</v>
+        <v>0.09619606663557584</v>
       </c>
       <c r="T35">
-        <v>0.0812509483760208</v>
+        <v>0.1165041757414039</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2648,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H36">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I36">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J36">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.233373</v>
+        <v>1.039394666666667</v>
       </c>
       <c r="N36">
-        <v>3.700119</v>
+        <v>3.118184</v>
       </c>
       <c r="O36">
-        <v>0.05229954443120028</v>
+        <v>0.05165468538081578</v>
       </c>
       <c r="P36">
-        <v>0.05846017809683861</v>
+        <v>0.06962215130916752</v>
       </c>
       <c r="Q36">
-        <v>9.579765551619667</v>
+        <v>3.291770878025778</v>
       </c>
       <c r="R36">
-        <v>86.21788996457701</v>
+        <v>29.625937902232</v>
       </c>
       <c r="S36">
-        <v>0.01722510263638422</v>
+        <v>0.008129953694934904</v>
       </c>
       <c r="T36">
-        <v>0.0215221807700994</v>
+        <v>0.01476942229299865</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2710,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="H37">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="I37">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="J37">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2728,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.767127666666667</v>
+        <v>3.167007666666667</v>
       </c>
       <c r="N37">
-        <v>23.301383</v>
+        <v>9.501023</v>
       </c>
       <c r="O37">
-        <v>0.3293547357576648</v>
+        <v>0.1573904406734479</v>
       </c>
       <c r="P37">
-        <v>0.3681511324588878</v>
+        <v>0.2121368273642225</v>
       </c>
       <c r="Q37">
-        <v>60.32827219029878</v>
+        <v>10.02993756072545</v>
       </c>
       <c r="R37">
-        <v>542.9544497126891</v>
+        <v>90.269438046529</v>
       </c>
       <c r="S37">
-        <v>0.1084745419660012</v>
+        <v>0.02477175081538213</v>
       </c>
       <c r="T37">
-        <v>0.1355352563307615</v>
+        <v>0.04500203352415794</v>
       </c>
     </row>
   </sheetData>
